--- a/Publish/source/CustomRegion/CustomRegionRat_v3.xlsx
+++ b/Publish/source/CustomRegion/CustomRegionRat_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\CustomRegionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\DefaultCustomRegion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>0;0;0</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Hypothalamus</t>
-  </si>
-  <si>
-    <t>Striatum_Pallidum</t>
   </si>
   <si>
     <t>Mid_Hind_Medulla</t>
@@ -126,6 +123,27 @@
   </si>
   <si>
     <t>mint</t>
+  </si>
+  <si>
+    <t>Striatum_Pallidum_BasalForebrain</t>
+  </si>
+  <si>
+    <t>SpinalCord</t>
+  </si>
+  <si>
+    <t>InnerEar</t>
+  </si>
+  <si>
+    <t>0;255;255</t>
+  </si>
+  <si>
+    <t>206;206;206</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>grey</t>
   </si>
 </sst>
 </file>
@@ -563,10 +581,10 @@
   <dimension ref="A1:Q400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
@@ -601,22 +619,26 @@
         <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -624,40 +646,44 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -665,40 +691,44 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -706,7 +736,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>92</v>
@@ -738,8 +768,12 @@
       <c r="K4" s="6">
         <v>33</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="6">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6">
+        <v>119</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -767,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="6">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J5" s="6">
         <v>5</v>
@@ -775,8 +809,10 @@
       <c r="K5" s="6">
         <v>125</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>120</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -804,14 +840,15 @@
         <v>94</v>
       </c>
       <c r="I6" s="6">
-        <v>81</v>
-      </c>
-      <c r="J6" s="6">
-        <v>74</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="K6" s="6">
+        <v>70</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <v>162</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -828,23 +865,17 @@
       <c r="D7" s="6">
         <v>112</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>82</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
       <c r="H7" s="6">
         <v>50</v>
       </c>
       <c r="I7" s="6">
-        <v>43</v>
-      </c>
-      <c r="J7" s="6">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -863,19 +894,16 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>93</v>
+      </c>
       <c r="H8" s="6">
         <v>55</v>
       </c>
       <c r="I8" s="6">
-        <v>147</v>
-      </c>
-      <c r="J8" s="6">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -899,12 +927,10 @@
         <v>71</v>
       </c>
       <c r="I9" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -926,12 +952,10 @@
         <v>51</v>
       </c>
       <c r="I10" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -953,7 +977,7 @@
         <v>58</v>
       </c>
       <c r="I11" s="6">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -978,9 +1002,6 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6">
         <v>47</v>
-      </c>
-      <c r="I12" s="6">
-        <v>164</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1029,7 +1050,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1054,7 +1075,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1079,7 +1100,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1102,7 +1123,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1125,7 +1146,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1148,7 +1169,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1171,7 +1192,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1194,7 +1215,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1217,7 +1238,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1240,7 +1261,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1263,7 +1284,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1286,7 +1307,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1309,7 +1330,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -1332,7 +1353,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1355,7 +1376,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -1378,7 +1399,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1401,7 +1422,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -1424,7 +1445,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1447,7 +1468,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -1470,7 +1491,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1493,7 +1514,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -1516,7 +1537,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1534,7 +1555,7 @@
         <v>121</v>
       </c>
       <c r="H36" s="6">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -1554,7 +1575,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -1577,7 +1598,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -1598,7 +1619,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1619,7 +1640,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -1639,7 +1660,9 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6">
+        <v>75</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1658,7 +1681,9 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6">
+        <v>56</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -1677,7 +1702,6 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
